--- a/Excel-XLSX/UN-LEB.xlsx
+++ b/Excel-XLSX/UN-LEB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1200">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3wJpP8</t>
+    <t>0TqUcX</t>
   </si>
   <si>
     <t>1964</t>
@@ -3492,33 +3492,33 @@
     <t>801</t>
   </si>
   <si>
-    <t>1559</t>
+    <t>1057</t>
   </si>
   <si>
     <t>802</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>803</t>
   </si>
   <si>
-    <t>2382</t>
-  </si>
-  <si>
     <t>804</t>
   </si>
   <si>
     <t>805</t>
   </si>
   <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
     <t>806</t>
   </si>
   <si>
-    <t>1853</t>
-  </si>
-  <si>
-    <t>2993</t>
-  </si>
-  <si>
     <t>808</t>
   </si>
   <si>
@@ -3528,15 +3528,21 @@
     <t>810</t>
   </si>
   <si>
+    <t>123774</t>
+  </si>
+  <si>
+    <t>860740</t>
+  </si>
+  <si>
+    <t>25851</t>
+  </si>
+  <si>
     <t>811</t>
   </si>
   <si>
     <t>812</t>
   </si>
   <si>
-    <t>25394</t>
-  </si>
-  <si>
     <t>813</t>
   </si>
   <si>
@@ -3570,30 +3576,33 @@
     <t>823</t>
   </si>
   <si>
+    <t>40000</t>
+  </si>
+  <si>
     <t>824</t>
   </si>
   <si>
+    <t>1758</t>
+  </si>
+  <si>
     <t>825</t>
   </si>
   <si>
-    <t>1929</t>
-  </si>
-  <si>
     <t>826</t>
   </si>
   <si>
+    <t>755426</t>
+  </si>
+  <si>
+    <t>254651</t>
+  </si>
+  <si>
+    <t>3209</t>
+  </si>
+  <si>
     <t>827</t>
   </si>
   <si>
-    <t>774697</t>
-  </si>
-  <si>
-    <t>5078</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
     <t>828</t>
   </si>
   <si>
@@ -3607,9 +3616,6 @@
   </si>
   <si>
     <t>832</t>
-  </si>
-  <si>
-    <t>833</t>
   </si>
 </sst>
 </file>
@@ -3994,7 +4000,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V834"/>
+  <dimension ref="A1:V833"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -57763,10 +57769,10 @@
         <v>32</v>
       </c>
       <c r="N791" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O791" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P791" s="2" t="s">
         <v>34</v>
@@ -57849,7 +57855,7 @@
         <v>34</v>
       </c>
       <c r="T792" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U792" s="1" t="s">
         <v>35</v>
@@ -57899,10 +57905,10 @@
         <v>32</v>
       </c>
       <c r="N793" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="O793" s="2" t="s">
-        <v>871</v>
+        <v>279</v>
       </c>
       <c r="P793" s="2" t="s">
         <v>34</v>
@@ -57917,7 +57923,7 @@
         <v>34</v>
       </c>
       <c r="T793" s="2" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="U793" s="1" t="s">
         <v>35</v>
@@ -57970,7 +57976,7 @@
         <v>34</v>
       </c>
       <c r="O794" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P794" s="2" t="s">
         <v>34</v>
@@ -57985,7 +57991,7 @@
         <v>34</v>
       </c>
       <c r="T794" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U794" s="1" t="s">
         <v>35</v>
@@ -58035,10 +58041,10 @@
         <v>32</v>
       </c>
       <c r="N795" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O795" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P795" s="2" t="s">
         <v>34</v>
@@ -58106,7 +58112,7 @@
         <v>34</v>
       </c>
       <c r="O796" s="2" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="P796" s="2" t="s">
         <v>34</v>
@@ -58121,7 +58127,7 @@
         <v>34</v>
       </c>
       <c r="T796" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U796" s="1" t="s">
         <v>35</v>
@@ -58239,10 +58245,10 @@
         <v>32</v>
       </c>
       <c r="N798" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O798" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="O798" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="P798" s="2" t="s">
         <v>34</v>
@@ -58378,7 +58384,7 @@
         <v>48</v>
       </c>
       <c r="O800" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P800" s="2" t="s">
         <v>34</v>
@@ -58443,7 +58449,7 @@
         <v>32</v>
       </c>
       <c r="N801" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O801" s="2" t="s">
         <v>53</v>
@@ -58511,7 +58517,7 @@
         <v>32</v>
       </c>
       <c r="N802" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="O802" s="2" t="s">
         <v>1158</v>
@@ -58529,7 +58535,7 @@
         <v>34</v>
       </c>
       <c r="T802" s="2" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="U802" s="1" t="s">
         <v>35</v>
@@ -58555,16 +58561,16 @@
         <v>1147</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G803" s="1" t="s">
-        <v>815</v>
+        <v>447</v>
       </c>
       <c r="H803" s="1" t="s">
-        <v>816</v>
+        <v>448</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>817</v>
+        <v>449</v>
       </c>
       <c r="J803" s="2" t="s">
         <v>29</v>
@@ -58582,7 +58588,7 @@
         <v>34</v>
       </c>
       <c r="O803" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P803" s="2" t="s">
         <v>34</v>
@@ -58597,7 +58603,7 @@
         <v>34</v>
       </c>
       <c r="T803" s="2" t="s">
-        <v>34</v>
+        <v>1160</v>
       </c>
       <c r="U803" s="1" t="s">
         <v>35</v>
@@ -58617,22 +58623,22 @@
         <v>22</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E804" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G804" s="1" t="s">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="H804" s="1" t="s">
-        <v>448</v>
+        <v>572</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>449</v>
+        <v>572</v>
       </c>
       <c r="J804" s="2" t="s">
         <v>29</v>
@@ -58650,7 +58656,7 @@
         <v>34</v>
       </c>
       <c r="O804" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P804" s="2" t="s">
         <v>34</v>
@@ -58665,7 +58671,7 @@
         <v>34</v>
       </c>
       <c r="T804" s="2" t="s">
-        <v>1161</v>
+        <v>48</v>
       </c>
       <c r="U804" s="1" t="s">
         <v>35</v>
@@ -58691,16 +58697,16 @@
         <v>1147</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G805" s="1" t="s">
-        <v>1107</v>
+        <v>309</v>
       </c>
       <c r="H805" s="1" t="s">
-        <v>1108</v>
+        <v>310</v>
       </c>
       <c r="I805" s="1" t="s">
-        <v>1109</v>
+        <v>310</v>
       </c>
       <c r="J805" s="2" t="s">
         <v>29</v>
@@ -58715,10 +58721,10 @@
         <v>32</v>
       </c>
       <c r="N805" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="O805" s="2" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="P805" s="2" t="s">
         <v>34</v>
@@ -58733,7 +58739,7 @@
         <v>34</v>
       </c>
       <c r="T805" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="U805" s="1" t="s">
         <v>35</v>
@@ -58759,16 +58765,16 @@
         <v>1147</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="G806" s="1" t="s">
-        <v>571</v>
+        <v>45</v>
       </c>
       <c r="H806" s="1" t="s">
-        <v>572</v>
+        <v>46</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>572</v>
+        <v>46</v>
       </c>
       <c r="J806" s="2" t="s">
         <v>29</v>
@@ -58783,10 +58789,10 @@
         <v>32</v>
       </c>
       <c r="N806" s="2" t="s">
-        <v>34</v>
+        <v>1164</v>
       </c>
       <c r="O806" s="2" t="s">
-        <v>53</v>
+        <v>1165</v>
       </c>
       <c r="P806" s="2" t="s">
         <v>34</v>
@@ -58801,7 +58807,7 @@
         <v>34</v>
       </c>
       <c r="T806" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="U806" s="1" t="s">
         <v>35</v>
@@ -58821,22 +58827,22 @@
         <v>22</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="E807" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G807" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="H807" s="1" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="J807" s="2" t="s">
         <v>29</v>
@@ -58851,10 +58857,10 @@
         <v>32</v>
       </c>
       <c r="N807" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O807" s="2" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="P807" s="2" t="s">
         <v>34</v>
@@ -58869,7 +58875,7 @@
         <v>34</v>
       </c>
       <c r="T807" s="2" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="U807" s="1" t="s">
         <v>35</v>
@@ -58895,16 +58901,16 @@
         <v>1147</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="G808" s="1" t="s">
-        <v>45</v>
+        <v>735</v>
       </c>
       <c r="H808" s="1" t="s">
-        <v>46</v>
+        <v>736</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>46</v>
+        <v>736</v>
       </c>
       <c r="J808" s="2" t="s">
         <v>29</v>
@@ -58919,10 +58925,10 @@
         <v>32</v>
       </c>
       <c r="N808" s="2" t="s">
-        <v>1165</v>
+        <v>55</v>
       </c>
       <c r="O808" s="2" t="s">
-        <v>1166</v>
+        <v>59</v>
       </c>
       <c r="P808" s="2" t="s">
         <v>34</v>
@@ -58937,7 +58943,7 @@
         <v>34</v>
       </c>
       <c r="T808" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="U808" s="1" t="s">
         <v>35</v>
@@ -58963,16 +58969,16 @@
         <v>1147</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G809" s="1" t="s">
-        <v>243</v>
+        <v>580</v>
       </c>
       <c r="H809" s="1" t="s">
-        <v>244</v>
+        <v>581</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>244</v>
+        <v>582</v>
       </c>
       <c r="J809" s="2" t="s">
         <v>29</v>
@@ -58987,10 +58993,10 @@
         <v>32</v>
       </c>
       <c r="N809" s="2" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="O809" s="2" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="P809" s="2" t="s">
         <v>34</v>
@@ -59005,7 +59011,7 @@
         <v>34</v>
       </c>
       <c r="T809" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="U809" s="1" t="s">
         <v>35</v>
@@ -59031,16 +59037,16 @@
         <v>1147</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G810" s="1" t="s">
-        <v>735</v>
+        <v>584</v>
       </c>
       <c r="H810" s="1" t="s">
-        <v>736</v>
+        <v>585</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>736</v>
+        <v>585</v>
       </c>
       <c r="J810" s="2" t="s">
         <v>29</v>
@@ -59055,10 +59061,10 @@
         <v>32</v>
       </c>
       <c r="N810" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O810" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P810" s="2" t="s">
         <v>34</v>
@@ -59099,16 +59105,16 @@
         <v>1147</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="G811" s="1" t="s">
-        <v>580</v>
+        <v>30</v>
       </c>
       <c r="H811" s="1" t="s">
-        <v>581</v>
+        <v>31</v>
       </c>
       <c r="I811" s="1" t="s">
-        <v>582</v>
+        <v>32</v>
       </c>
       <c r="J811" s="2" t="s">
         <v>29</v>
@@ -59132,16 +59138,16 @@
         <v>34</v>
       </c>
       <c r="Q811" s="2" t="s">
-        <v>34</v>
+        <v>1170</v>
       </c>
       <c r="R811" s="2" t="s">
-        <v>34</v>
+        <v>1171</v>
       </c>
       <c r="S811" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T811" s="2" t="s">
-        <v>48</v>
+        <v>1172</v>
       </c>
       <c r="U811" s="1" t="s">
         <v>35</v>
@@ -59161,22 +59167,22 @@
         <v>22</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="E812" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>584</v>
+        <v>459</v>
       </c>
       <c r="H812" s="1" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="I812" s="1" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="J812" s="2" t="s">
         <v>29</v>
@@ -59191,10 +59197,10 @@
         <v>32</v>
       </c>
       <c r="N812" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O812" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="P812" s="2" t="s">
         <v>34</v>
@@ -59209,7 +59215,7 @@
         <v>34</v>
       </c>
       <c r="T812" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="U812" s="1" t="s">
         <v>35</v>
@@ -59229,22 +59235,22 @@
         <v>22</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="E813" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="G813" s="1" t="s">
-        <v>30</v>
+        <v>588</v>
       </c>
       <c r="H813" s="1" t="s">
-        <v>31</v>
+        <v>589</v>
       </c>
       <c r="I813" s="1" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="J813" s="2" t="s">
         <v>29</v>
@@ -59262,7 +59268,7 @@
         <v>34</v>
       </c>
       <c r="O813" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="P813" s="2" t="s">
         <v>34</v>
@@ -59277,7 +59283,7 @@
         <v>34</v>
       </c>
       <c r="T813" s="2" t="s">
-        <v>1172</v>
+        <v>58</v>
       </c>
       <c r="U813" s="1" t="s">
         <v>35</v>
@@ -59297,22 +59303,22 @@
         <v>22</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E814" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>459</v>
+        <v>1067</v>
       </c>
       <c r="H814" s="1" t="s">
-        <v>460</v>
+        <v>1068</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>460</v>
+        <v>1068</v>
       </c>
       <c r="J814" s="2" t="s">
         <v>29</v>
@@ -59330,7 +59336,7 @@
         <v>34</v>
       </c>
       <c r="O814" s="2" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="P814" s="2" t="s">
         <v>34</v>
@@ -59345,7 +59351,7 @@
         <v>34</v>
       </c>
       <c r="T814" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U814" s="1" t="s">
         <v>35</v>
@@ -59365,22 +59371,22 @@
         <v>22</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E815" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H815" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J815" s="2" t="s">
         <v>29</v>
@@ -59398,7 +59404,7 @@
         <v>34</v>
       </c>
       <c r="O815" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="P815" s="2" t="s">
         <v>34</v>
@@ -59413,7 +59419,7 @@
         <v>34</v>
       </c>
       <c r="T815" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="U815" s="1" t="s">
         <v>35</v>
@@ -59433,22 +59439,22 @@
         <v>22</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="E816" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G816" s="1" t="s">
-        <v>1067</v>
+        <v>639</v>
       </c>
       <c r="H816" s="1" t="s">
-        <v>1068</v>
+        <v>640</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>1068</v>
+        <v>641</v>
       </c>
       <c r="J816" s="2" t="s">
         <v>29</v>
@@ -59463,10 +59469,10 @@
         <v>32</v>
       </c>
       <c r="N816" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O816" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="P816" s="2" t="s">
         <v>34</v>
@@ -59481,7 +59487,7 @@
         <v>34</v>
       </c>
       <c r="T816" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="U816" s="1" t="s">
         <v>35</v>
@@ -59501,22 +59507,22 @@
         <v>22</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E817" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>592</v>
+        <v>319</v>
       </c>
       <c r="H817" s="1" t="s">
-        <v>593</v>
+        <v>320</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>593</v>
+        <v>321</v>
       </c>
       <c r="J817" s="2" t="s">
         <v>29</v>
@@ -59531,10 +59537,10 @@
         <v>32</v>
       </c>
       <c r="N817" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O817" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="P817" s="2" t="s">
         <v>34</v>
@@ -59569,22 +59575,22 @@
         <v>22</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E818" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H818" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="J818" s="2" t="s">
         <v>29</v>
@@ -59599,25 +59605,25 @@
         <v>32</v>
       </c>
       <c r="N818" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O818" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P818" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q818" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R818" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S818" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T818" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O818" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P818" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q818" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R818" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S818" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T818" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="U818" s="1" t="s">
         <v>35</v>
@@ -59637,22 +59643,22 @@
         <v>22</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="E819" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>319</v>
+        <v>462</v>
       </c>
       <c r="H819" s="1" t="s">
-        <v>320</v>
+        <v>463</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="J819" s="2" t="s">
         <v>29</v>
@@ -59667,11 +59673,11 @@
         <v>32</v>
       </c>
       <c r="N819" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O819" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O819" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="P819" s="2" t="s">
         <v>34</v>
       </c>
@@ -59685,7 +59691,7 @@
         <v>34</v>
       </c>
       <c r="T819" s="2" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="U819" s="1" t="s">
         <v>35</v>
@@ -59705,22 +59711,22 @@
         <v>22</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="E820" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>643</v>
+        <v>390</v>
       </c>
       <c r="H820" s="1" t="s">
-        <v>644</v>
+        <v>391</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>644</v>
+        <v>391</v>
       </c>
       <c r="J820" s="2" t="s">
         <v>29</v>
@@ -59735,10 +59741,10 @@
         <v>32</v>
       </c>
       <c r="N820" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O820" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="P820" s="2" t="s">
         <v>34</v>
@@ -59753,7 +59759,7 @@
         <v>34</v>
       </c>
       <c r="T820" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="U820" s="1" t="s">
         <v>35</v>
@@ -59773,22 +59779,22 @@
         <v>22</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E821" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="H821" s="1" t="s">
-        <v>463</v>
+        <v>248</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>464</v>
+        <v>248</v>
       </c>
       <c r="J821" s="2" t="s">
         <v>29</v>
@@ -59806,7 +59812,7 @@
         <v>34</v>
       </c>
       <c r="O821" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="P821" s="2" t="s">
         <v>34</v>
@@ -59821,7 +59827,7 @@
         <v>34</v>
       </c>
       <c r="T821" s="2" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="U821" s="1" t="s">
         <v>35</v>
@@ -59841,22 +59847,22 @@
         <v>22</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="E822" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="H822" s="1" t="s">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="I822" s="1" t="s">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="J822" s="2" t="s">
         <v>29</v>
@@ -59871,10 +59877,10 @@
         <v>32</v>
       </c>
       <c r="N822" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O822" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="P822" s="2" t="s">
         <v>34</v>
@@ -59889,7 +59895,7 @@
         <v>34</v>
       </c>
       <c r="T822" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="U822" s="1" t="s">
         <v>35</v>
@@ -59909,22 +59915,22 @@
         <v>22</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="E823" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F823" s="2" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>247</v>
+        <v>697</v>
       </c>
       <c r="H823" s="1" t="s">
-        <v>248</v>
+        <v>698</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>248</v>
+        <v>698</v>
       </c>
       <c r="J823" s="2" t="s">
         <v>29</v>
@@ -59939,10 +59945,10 @@
         <v>32</v>
       </c>
       <c r="N823" s="2" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="O823" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P823" s="2" t="s">
         <v>34</v>
@@ -59977,22 +59983,22 @@
         <v>22</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E824" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="H824" s="1" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="J824" s="2" t="s">
         <v>29</v>
@@ -60007,10 +60013,10 @@
         <v>32</v>
       </c>
       <c r="N824" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O824" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="P824" s="2" t="s">
         <v>34</v>
@@ -60022,7 +60028,7 @@
         <v>34</v>
       </c>
       <c r="S824" s="2" t="s">
-        <v>34</v>
+        <v>1186</v>
       </c>
       <c r="T824" s="2" t="s">
         <v>34</v>
@@ -60045,22 +60051,22 @@
         <v>22</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="E825" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>697</v>
+        <v>176</v>
       </c>
       <c r="H825" s="1" t="s">
-        <v>698</v>
+        <v>177</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>698</v>
+        <v>178</v>
       </c>
       <c r="J825" s="2" t="s">
         <v>29</v>
@@ -60075,10 +60081,10 @@
         <v>32</v>
       </c>
       <c r="N825" s="2" t="s">
-        <v>135</v>
+        <v>1184</v>
       </c>
       <c r="O825" s="2" t="s">
-        <v>34</v>
+        <v>1188</v>
       </c>
       <c r="P825" s="2" t="s">
         <v>34</v>
@@ -60093,7 +60099,7 @@
         <v>34</v>
       </c>
       <c r="T825" s="2" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="U825" s="1" t="s">
         <v>35</v>
@@ -60113,22 +60119,22 @@
         <v>22</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="E826" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>176</v>
+        <v>1135</v>
       </c>
       <c r="H826" s="1" t="s">
-        <v>177</v>
+        <v>1136</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>178</v>
+        <v>1136</v>
       </c>
       <c r="J826" s="2" t="s">
         <v>29</v>
@@ -60143,10 +60149,10 @@
         <v>32</v>
       </c>
       <c r="N826" s="2" t="s">
-        <v>1176</v>
+        <v>34</v>
       </c>
       <c r="O826" s="2" t="s">
-        <v>1186</v>
+        <v>34</v>
       </c>
       <c r="P826" s="2" t="s">
         <v>34</v>
@@ -60161,7 +60167,7 @@
         <v>34</v>
       </c>
       <c r="T826" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="U826" s="1" t="s">
         <v>35</v>
@@ -60181,22 +60187,22 @@
         <v>22</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="E827" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F827" s="2" t="s">
-        <v>375</v>
+        <v>49</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>1135</v>
+        <v>50</v>
       </c>
       <c r="H827" s="1" t="s">
-        <v>1136</v>
+        <v>51</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>1136</v>
+        <v>51</v>
       </c>
       <c r="J827" s="2" t="s">
         <v>29</v>
@@ -60211,13 +60217,13 @@
         <v>32</v>
       </c>
       <c r="N827" s="2" t="s">
-        <v>34</v>
+        <v>1191</v>
       </c>
       <c r="O827" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P827" s="2" t="s">
-        <v>34</v>
+        <v>1192</v>
       </c>
       <c r="Q827" s="2" t="s">
         <v>34</v>
@@ -60229,7 +60235,7 @@
         <v>34</v>
       </c>
       <c r="T827" s="2" t="s">
-        <v>48</v>
+        <v>1193</v>
       </c>
       <c r="U827" s="1" t="s">
         <v>35</v>
@@ -60249,22 +60255,22 @@
         <v>22</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="E828" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>50</v>
+        <v>1027</v>
       </c>
       <c r="H828" s="1" t="s">
-        <v>51</v>
+        <v>1028</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>51</v>
+        <v>1029</v>
       </c>
       <c r="J828" s="2" t="s">
         <v>29</v>
@@ -60279,13 +60285,13 @@
         <v>32</v>
       </c>
       <c r="N828" s="2" t="s">
-        <v>1189</v>
+        <v>34</v>
       </c>
       <c r="O828" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P828" s="2" t="s">
-        <v>1190</v>
+        <v>34</v>
       </c>
       <c r="Q828" s="2" t="s">
         <v>34</v>
@@ -60297,7 +60303,7 @@
         <v>34</v>
       </c>
       <c r="T828" s="2" t="s">
-        <v>1191</v>
+        <v>34</v>
       </c>
       <c r="U828" s="1" t="s">
         <v>35</v>
@@ -60317,22 +60323,22 @@
         <v>22</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="E829" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>1027</v>
+        <v>331</v>
       </c>
       <c r="H829" s="1" t="s">
-        <v>1028</v>
+        <v>332</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>1029</v>
+        <v>332</v>
       </c>
       <c r="J829" s="2" t="s">
         <v>29</v>
@@ -60347,7 +60353,7 @@
         <v>32</v>
       </c>
       <c r="N829" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O829" s="2" t="s">
         <v>48</v>
@@ -60385,22 +60391,22 @@
         <v>22</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E830" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H830" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J830" s="2" t="s">
         <v>29</v>
@@ -60418,7 +60424,7 @@
         <v>55</v>
       </c>
       <c r="O830" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P830" s="2" t="s">
         <v>34</v>
@@ -60433,7 +60439,7 @@
         <v>34</v>
       </c>
       <c r="T830" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="U830" s="1" t="s">
         <v>35</v>
@@ -60453,22 +60459,22 @@
         <v>22</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="E831" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="G831" s="1" t="s">
-        <v>335</v>
+        <v>657</v>
       </c>
       <c r="H831" s="1" t="s">
-        <v>336</v>
+        <v>658</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>336</v>
+        <v>658</v>
       </c>
       <c r="J831" s="2" t="s">
         <v>29</v>
@@ -60483,10 +60489,10 @@
         <v>32</v>
       </c>
       <c r="N831" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="O831" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P831" s="2" t="s">
         <v>34</v>
@@ -60501,7 +60507,7 @@
         <v>34</v>
       </c>
       <c r="T831" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="U831" s="1" t="s">
         <v>35</v>
@@ -60521,22 +60527,22 @@
         <v>22</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E832" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="H832" s="1" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="J832" s="2" t="s">
         <v>29</v>
@@ -60554,7 +60560,7 @@
         <v>34</v>
       </c>
       <c r="O832" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P832" s="2" t="s">
         <v>34</v>
@@ -60589,22 +60595,22 @@
         <v>22</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="E833" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>708</v>
+        <v>340</v>
       </c>
       <c r="H833" s="1" t="s">
-        <v>709</v>
+        <v>341</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>709</v>
+        <v>341</v>
       </c>
       <c r="J833" s="2" t="s">
         <v>29</v>
@@ -60619,10 +60625,10 @@
         <v>32</v>
       </c>
       <c r="N833" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="O833" s="2" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="P833" s="2" t="s">
         <v>34</v>
@@ -60643,74 +60649,6 @@
         <v>35</v>
       </c>
       <c r="V833" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C834" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D834" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E834" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F834" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G834" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H834" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I834" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J834" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K834" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L834" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M834" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N834" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O834" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="P834" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q834" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R834" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S834" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T834" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U834" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V834" s="2" t="s">
         <v>34</v>
       </c>
     </row>
